--- a/biology/Botanique/Nastus/Nastus.xlsx
+++ b/biology/Botanique/Nastus/Nastus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nastus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire des forêts tropicales de l'hémisphère sud, de la Réunion et Madagascar à l'Indonésie et la Nouvelle-Guinée[2], qui comprend environ 25 espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nastus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire des forêts tropicales de l'hémisphère sud, de la Réunion et Madagascar à l'Indonésie et la Nouvelle-Guinée, qui comprend environ 25 espèces.
 </t>
         </is>
       </c>
@@ -511,19 +523,125 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Nastus a été décrit pour la première fois par le botaniste français, Antoine-Laurent de Jussieu, et publié le 4 août 1789 dans son Genera Plantarum (Jussieu) 34. 1789[3].
-L'espèce-type est Nastus borbonicus J.F.Gmel[4].
-Étymologie
-Le nom générique Nastus est la transcription d'un nom grec classique, ναστος (nastos), utilisé par le botaniste grec, Dioscoride, pour désigner un type de roseau, Cenchrus frutescens (synonyme de Phragmites australis subsp. australis). Ce nom a été appliqué à un genre tout à fait différent[5].
-Synonymes
-Selon GRIN[6] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Nastus a été décrit pour la première fois par le botaniste français, Antoine-Laurent de Jussieu, et publié le 4 août 1789 dans son Genera Plantarum (Jussieu) 34. 1789.
+L'espèce-type est Nastus borbonicus J.F.Gmel.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nastus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nastus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Nastus est la transcription d'un nom grec classique, ναστος (nastos), utilisé par le botaniste grec, Dioscoride, pour désigner un type de roseau, Cenchrus frutescens (synonyme de Phragmites australis subsp. australis). Ce nom a été appliqué à un genre tout à fait différent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nastus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nastus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GRIN :
 Chloothamnus Buse
 Oreiostachys Gamble
-Stemmatospermum P. Beauv.
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (5 juin 2017)[7] :
+Stemmatospermum P. Beauv.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nastus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nastus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (5 juin 2017) :
 Nastus ambrensis A.Camus (1953)
 Nastus aristatus A.Camus (1925)
 Nastus borbonicus J.F.Gmel. (1791)
